--- a/preprocessing/任务表.xlsx
+++ b/preprocessing/任务表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klaus\Documents\sufelaw2019\preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A4EAD4A-685B-460A-B34E-838264C6CF16}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8646615-5930-4DAC-B3E6-C357D4FE7BFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13133" windowHeight="7530" xr2:uid="{72DB0E0D-347F-4C86-9CF2-2C8DB392B7DF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>负责人</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t>最后的需要写成代码的pipeline，在别的文档也可以用。</t>
+  </si>
+  <si>
+    <t>白露佳</t>
+  </si>
+  <si>
+    <t>陈文奇</t>
+  </si>
+  <si>
+    <t>徐晓杰</t>
+  </si>
+  <si>
+    <t>吴佳欣</t>
+  </si>
+  <si>
+    <t>袁康洪</t>
   </si>
 </sst>
 </file>
@@ -254,12 +269,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -274,6 +283,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,360 +603,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14078003-0708-491C-B618-8E77E1AC89E4}">
-  <dimension ref="B1:G39"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="7"/>
-    <col min="2" max="2" width="6.53125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="4.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.6640625" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="7"/>
+    <col min="1" max="1" width="9.06640625" style="5"/>
+    <col min="2" max="2" width="6.53125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.53125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" s="7" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+    <row r="13" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>12</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
+    <row r="16" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
         <v>13</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
         <v>14</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
         <v>15</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>

--- a/preprocessing/任务表.xlsx
+++ b/preprocessing/任务表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klaus\Documents\sufelaw2019\preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8646615-5930-4DAC-B3E6-C357D4FE7BFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDBD75-1D3D-4A84-8885-5C194E9D1246}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13133" windowHeight="7530" xr2:uid="{72DB0E0D-347F-4C86-9CF2-2C8DB392B7DF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>负责人</t>
   </si>
@@ -104,9 +104,6 @@
     <t>分三列，省+市+（中/高级）</t>
   </si>
   <si>
-    <t>分散列，年月日</t>
-  </si>
-  <si>
     <t>四列 one hot 检察院，法人，自然人，其他</t>
   </si>
   <si>
@@ -171,6 +168,21 @@
   </si>
   <si>
     <t>袁康洪</t>
+  </si>
+  <si>
+    <t>马嘉诚</t>
+  </si>
+  <si>
+    <t>朱晨阳</t>
+  </si>
+  <si>
+    <t>分三列，年月日</t>
+  </si>
+  <si>
+    <t>Complete Date</t>
+  </si>
+  <si>
+    <t>TODO Merge these three into one function</t>
   </si>
 </sst>
 </file>
@@ -214,7 +226,7 @@
       <name val="SimSun"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -283,11 +301,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14078003-0708-491C-B618-8E77E1AC89E4}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -617,40 +641,45 @@
     <col min="4" max="4" width="15.73046875" style="5" customWidth="1"/>
     <col min="5" max="5" width="4.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="5"/>
+    <col min="7" max="7" width="15.19921875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>1</v>
@@ -664,12 +693,15 @@
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -680,13 +712,16 @@
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
+        <v>43426</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -698,12 +733,15 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -714,13 +752,14 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -732,13 +771,14 @@
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1"/>
+      <c r="H8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -748,69 +788,80 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="I10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8">
+        <v>43427</v>
+      </c>
+      <c r="H11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
+    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -819,18 +870,21 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="4">
+        <v>28</v>
+      </c>
+      <c r="G13" s="8">
+        <v>43427</v>
+      </c>
+      <c r="H13" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -839,35 +893,41 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="4">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+    <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1"/>
+      <c r="H15" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -875,18 +935,19 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="4">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
@@ -895,18 +956,19 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="4">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
@@ -915,18 +977,19 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="4">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
@@ -935,33 +998,34 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="4">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
